--- a/11th Feb Batch/Excel Whole Lesson.xlsx
+++ b/11th Feb Batch/Excel Whole Lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\11th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC7172-2681-4FCC-AF70-1ED415134469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B246AFCA-3884-4FFC-AAC0-68BEDB86092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concat - Textjoin" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
   <si>
     <t>Concat Method</t>
   </si>
@@ -391,13 +382,16 @@
     <t>using the text function we can extract the name of a day from a given date , the syntax will hold two arguments , first the cell where the dates are stored , then "dddd" which will specify the day of that date. Above birthday column uses the same formula</t>
   </si>
   <si>
-    <t>using the randbetween function and date function together , we can create random dates in excel as given above in DOB column</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
     <t>Just like sumif and sumifs , for one condition checking we will use countif and for multiple condition checking we will us countifs. In countifs we have here two primary arguments , first criteria being gender and second criteria being birthplace</t>
+  </si>
+  <si>
+    <t>Random Date Formula</t>
+  </si>
+  <si>
+    <t>using the randbetween function and date function together , we can create random dates in excel as given above in date formula  column</t>
   </si>
 </sst>
 </file>
@@ -506,40 +500,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,8 +525,35 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -856,22 +850,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -923,24 +917,24 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,C3:F3)</f>
@@ -948,13 +942,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -976,7 +970,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,784 +986,784 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="9">
         <v>0.2</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="8">
         <v>235000</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="10">
         <f>_xlfn.IFS(G11="Royal enfield",20%,G11= "Bajaj",15%,G11="Harley Davidson",12%)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="10">
         <f>_xlfn.SWITCH(G11,"Royal enfield",0.2,"Bajaj",0.15,"Harley Davidson",0.12,"Data Not Found")</f>
         <v>0.2</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="8">
         <f>H11-(H11*J11)</f>
         <v>188000</v>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="8" t="str">
         <f>_xlfn.SWITCH(TRUE,K11 &gt;=200000, " Expensive", "Cheap")</f>
         <v>Cheap</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="8">
         <f>_xlfn.SWITCH(G11,$B$11,$C$11,$B$12,$C$12,$B$13,$C$13,"Data Not Found")</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="9">
         <v>0.15</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="8">
         <v>525000</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="10">
         <f t="shared" ref="I12:I23" si="0">_xlfn.IFS(G12="Royal enfield",20%,G12= "Bajaj",15%,G12="Harley Davidson",12%)</f>
         <v>0.12</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="10">
         <f t="shared" ref="J12:J23" si="1">_xlfn.SWITCH(G12,"Royal enfield",0.2,"Bajaj",0.15,"Harley Davidson",0.12,"Data Not Found")</f>
         <v>0.12</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="8">
         <f t="shared" ref="K12:K23" si="2">H12-(H12*J12)</f>
         <v>462000</v>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="8" t="str">
         <f t="shared" ref="L12:L22" si="3">_xlfn.SWITCH(TRUE,K12 &gt;=200000, " Expensive", "Cheap")</f>
         <v xml:space="preserve"> Expensive</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="8">
         <f t="shared" ref="M12:M22" si="4">_xlfn.SWITCH(G12,$B$11,$C$11,$B$12,$C$12,$B$13,$C$13,"Data Not Found")</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="9">
         <v>0.12</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="8">
         <v>950000</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="8">
         <f t="shared" si="2"/>
         <v>836000</v>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="8" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> Expensive</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="8">
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="8">
         <v>325000</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="10">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="8">
         <f t="shared" si="2"/>
         <v>260000</v>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="8" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> Expensive</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="8">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="8">
         <v>262000</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="10">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="8">
         <f t="shared" si="2"/>
         <v>209600</v>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="8" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> Expensive</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="8">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="8">
         <v>1650000</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="10">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="8">
         <f t="shared" si="2"/>
         <v>1452000</v>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="8" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> Expensive</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="8">
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="8">
         <v>85000</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="10">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="8">
         <f t="shared" si="2"/>
         <v>72250</v>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Cheap</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="8">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="8">
         <v>63000</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="10">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="8">
         <f t="shared" si="2"/>
         <v>53550</v>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Cheap</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="8">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="8">
         <v>48000</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="10">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="8">
         <f t="shared" si="2"/>
         <v>40800</v>
       </c>
-      <c r="L19" s="17" t="str">
+      <c r="L19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Cheap</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="8">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="8">
         <v>135000</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="10">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="8">
         <f t="shared" si="2"/>
         <v>114750</v>
       </c>
-      <c r="L20" s="17" t="str">
+      <c r="L20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Cheap</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="8">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="8">
         <v>148000</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="10">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="10">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="8">
         <f t="shared" si="2"/>
         <v>118400</v>
       </c>
-      <c r="L21" s="17" t="str">
+      <c r="L21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Cheap</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="8">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="8">
         <v>147000</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="10">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="10">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="8">
         <f t="shared" si="2"/>
         <v>117600</v>
       </c>
-      <c r="L22" s="17" t="str">
+      <c r="L22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Cheap</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="8">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="8">
         <v>52000</v>
       </c>
-      <c r="I23" s="19" t="e">
+      <c r="I23" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="19" t="str">
+      <c r="J23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Data Not Found</v>
       </c>
-      <c r="K23" s="17" t="e">
+      <c r="K23" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1895,26 +1889,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1934,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E054FA-1595-4D68-89A9-C9456FDB249B}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -1948,533 +1942,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>15000</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <f>SUMIF(B12:B17,"North",D12:D17)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>17400</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <f>SUMIF(B12:B17,"East",D12:D17)</f>
         <v>47640</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>13600</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <f>SUMIF(B12:B17,"South",D12:D17)</f>
         <v>17400</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>18000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>16490</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>17550</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>24504</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <f>SUMIFS(D26:D43,B26:B43,$B$26,C26:C43,$C$26)</f>
         <v>68884</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>15666</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <f>SUMIFS(D26:D43,B26:B43,$B$27,C26:C43,$C$27)</f>
         <v>34294</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>17989</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <f>SUMIFS(D26:D43,B26:B43,$B$28,C26:C43,$C$30)</f>
         <v>39938</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>16505</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="4">
         <f>SUMIFS(D26:D43,B26:B43,$B$28,C26:C43,$C$28)</f>
         <v>50789</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <v>17974</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <v>24453</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <v>21606</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>24522</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <v>17167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>15570</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>18340</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <v>21871</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>22774</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>18628</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="4">
         <v>15633</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>20204</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>21964</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>18514</v>
       </c>
     </row>
@@ -2495,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EE55CD-D647-4E4F-B8FB-DDE0BEFC150F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,471 +2498,494 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>118</v>
+      <c r="J7" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="12">
         <v>33247</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="4" t="str">
         <f>TEXT(C8,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <f>COUNTIFS(B8:B25,$H$8,D8:D25,$I$8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="12">
         <v>34435</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="4" t="str">
         <f t="shared" ref="E9:E25" si="0">TEXT(C9,"ddd")</f>
         <v>Mon</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="12">
         <v>33079</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="12">
         <v>33570</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="12">
         <v>33264</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="12">
         <v>33004</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
+      <c r="H13" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="12">
         <v>34986</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
+      <c r="H14" s="22">
+        <f ca="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
+        <v>37233</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="12">
         <v>33044</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
+      <c r="H15" s="22">
+        <f t="shared" ref="H15:H18" ca="1" si="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
+        <v>36937</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="12">
         <v>34094</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H16" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>35285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="12">
         <v>34812</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="H17" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>34862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="12">
         <v>34518</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="H18" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>36503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="12">
         <v>34871</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="12">
         <v>34948</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="12">
         <v>32966</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="12">
         <v>34164</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="12">
         <v>33300</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="12">
         <v>33484</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="12">
         <v>34199</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2986,5 +3003,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11th Feb Batch/Excel Whole Lesson.xlsx
+++ b/11th Feb Batch/Excel Whole Lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\11th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B246AFCA-3884-4FFC-AAC0-68BEDB86092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31039101-604A-4B43-A16D-4209E0A6D047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concat - Textjoin" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Delimiter separation" sheetId="3" r:id="rId3"/>
     <sheet name="SUMIF , SUMIFS" sheetId="5" r:id="rId4"/>
     <sheet name="COUNTIF , COUNTIFS" sheetId="6" r:id="rId5"/>
+    <sheet name="VLookUP , HLookUP" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="140">
   <si>
     <t>Concat Method</t>
   </si>
@@ -392,6 +393,63 @@
   </si>
   <si>
     <t>using the randbetween function and date function together , we can create random dates in excel as given above in date formula  column</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>lcd</t>
+  </si>
+  <si>
+    <t>dvd</t>
+  </si>
+  <si>
+    <t>ups</t>
+  </si>
+  <si>
+    <t>Mother Board</t>
+  </si>
+  <si>
+    <t>Vlookup helps to look into our data vertically and Hlookup helps us to look into a set of data horizontally</t>
+  </si>
+  <si>
+    <t>We have a set of data above with different computer parts in place , now with the help of Vlookup we will access all the data vertically , means if we select an item from the set drop down list , then the corrosponding cost and sale amounts will show up</t>
+  </si>
+  <si>
+    <t>Lets first copy the heading of the data (items , cost , sale) and put it into a different cell location. Then select the item heading in the copied section and go to data validation , select list as data drop down and and provide the entire item column as lookup area or range , including the item heading.</t>
+  </si>
+  <si>
+    <t>Now in the first row of the item column provide the vlookup functionality , we are choosing our data based on the item name here , so the lookup value will always be the cell reference number of the items heading in the copied section , as for the table array we will select the entire table including headings where data is stored. Column index number will be 1,2,3 as per the column we are putting our formula in and the in next provide 0</t>
+  </si>
+  <si>
+    <t>This is a fine tuned vlookup model where the heading names are not chaging , only the content of items getting changed and based on that all corrospondeing data points are getting updated.</t>
+  </si>
+  <si>
+    <t>VLookUp</t>
+  </si>
+  <si>
+    <t>HLookUp</t>
+  </si>
+  <si>
+    <t>Hlook up functionality is absolutely same as Vlookup function and arguments , as I have copied our previous data into a transposed format with paste special , transpose and then applied entire vlookup code syntax , the change remains in the code as we write hlookup here instead of Vlookup and in the index number given is row index instead of column index.</t>
   </si>
 </sst>
 </file>
@@ -429,12 +487,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -491,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,14 +601,14 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -552,7 +628,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -850,22 +938,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -917,24 +1005,24 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,C3:F3)</f>
@@ -942,13 +1030,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -970,7 +1058,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,42 +1816,42 @@
       <c r="M29" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1889,26 +1977,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1928,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E054FA-1595-4D68-89A9-C9456FDB249B}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EE55CD-D647-4E4F-B8FB-DDE0BEFC150F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,9 +2789,9 @@
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="13">
         <f ca="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>37233</v>
+        <v>35327</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,9 +2811,9 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="13">
         <f t="shared" ref="H15:H18" ca="1" si="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>36937</v>
+        <v>37221</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2745,9 +2833,9 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>35285</v>
+        <v>35532</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,9 +2855,9 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>34862</v>
+        <v>36522</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2789,9 +2877,9 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>36503</v>
+        <v>35935</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,4 +3093,574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E04DB56-70AC-461F-AE93-E35A885FA725}">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="4">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="4">
+        <v>300</v>
+      </c>
+      <c r="C9" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1900</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="str">
+        <f>VLOOKUP(A32,A8:C15,1,0)</f>
+        <v>dvd</v>
+      </c>
+      <c r="B33" s="8">
+        <f>VLOOKUP(A32,A7:C15,2,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="C33" s="8">
+        <f>VLOOKUP(A32,A7:C15,3,0)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="4">
+        <f>VLOOKUP(A37,A8:C15,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="C37" s="4">
+        <f>VLOOKUP(A37,A8:C15,3,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="4">
+        <v>200</v>
+      </c>
+      <c r="C47" s="4">
+        <v>300</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="4">
+        <v>300</v>
+      </c>
+      <c r="C48" s="4">
+        <v>350</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G48" s="4">
+        <v>3500</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="4">
+        <f>HLOOKUP(B54,B46:I48,2,0)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="4">
+        <f>HLOOKUP(B54,B46:I48,3,0)</f>
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A50:L52"/>
+    <mergeCell ref="A27:L30"/>
+    <mergeCell ref="F36:M39"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A17:G20"/>
+    <mergeCell ref="A22:H25"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32" xr:uid="{484A8FA6-9A9F-4C6C-BDD5-507DC17454DE}">
+      <formula1>$A$7:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A37" xr:uid="{6E3DF0A1-CB07-4C94-8956-B51340890351}">
+      <formula1>$A$8:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{9378B078-0E0D-4AE6-A6F4-5F6CC78F5692}">
+      <formula1>$B$46:$I$46</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/11th Feb Batch/Excel Whole Lesson.xlsx
+++ b/11th Feb Batch/Excel Whole Lesson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\11th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31039101-604A-4B43-A16D-4209E0A6D047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A72E72-7EC8-44AF-B14D-0155BA8349D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concat - Textjoin" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,28 @@
     <sheet name="SUMIF , SUMIFS" sheetId="5" r:id="rId4"/>
     <sheet name="COUNTIF , COUNTIFS" sheetId="6" r:id="rId5"/>
     <sheet name="VLookUP , HLookUP" sheetId="7" r:id="rId6"/>
+    <sheet name="Index Match" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="168">
   <si>
     <t>Concat Method</t>
   </si>
@@ -450,6 +460,90 @@
   </si>
   <si>
     <t>Hlook up functionality is absolutely same as Vlookup function and arguments , as I have copied our previous data into a transposed format with paste special , transpose and then applied entire vlookup code syntax , the change remains in the code as we write hlookup here instead of Vlookup and in the index number given is row index instead of column index.</t>
+  </si>
+  <si>
+    <t>Index Method</t>
+  </si>
+  <si>
+    <t>Index method helps us to find out the value of a celll based on row and column number</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Hometown</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Our target now is suppose 5th row and 3rd column. In our formula we will type in Index , then select the entire table area , then provide first row and then the column number - "service" should be the output. Let's have a look.</t>
+  </si>
+  <si>
+    <t>Formula cell</t>
+  </si>
+  <si>
+    <t>Match Method</t>
+  </si>
+  <si>
+    <t>Match method helps us to extract the row record number of the particular argument that is given as a query in the formula , we will take the same example over here on the data</t>
+  </si>
+  <si>
+    <t>Suppose our target here is to find out the row record number for Charlie , Let's take charlie written as a separate variable , in our  formula the first argument would be the cell reference number of Charlie , Then we will be selecting the entire range of the name column as we are trying to find out the row number based on a name , then at the very end we will write 0 which will ensure exact match. 2 should be our output here.</t>
+  </si>
+  <si>
+    <t>Target Cell</t>
+  </si>
+  <si>
+    <t>Now suppose we want to find out that in which column Occupation is residing , we can see in the data that it's in 3rd column. With the help of match formula we will be able to identify the same , in Here our target cekk will be Occupation , the range will be the entire range of columns(Name,Age,Occupation,Hometown) , and as before for exact match we will use 0.</t>
+  </si>
+  <si>
+    <t>Index &amp; Match Combined</t>
+  </si>
+  <si>
+    <t>This is a very powerful application of excel . Combining the index and match formula together , we will be able to get the output of a specific data from the entire dataset.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,8 +606,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -562,12 +662,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,6 +713,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,12 +743,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -641,6 +750,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -938,22 +1086,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1005,24 +1153,24 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,C3:F3)</f>
@@ -1030,13 +1178,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -1074,110 +1222,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1737,15 +1885,15 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1784,15 +1932,15 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1801,13 +1949,13 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1816,42 +1964,42 @@
       <c r="M29" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1977,26 +2125,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2030,77 +2178,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2115,10 +2263,10 @@
       <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2226,39 +2374,39 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2273,10 +2421,10 @@
       <c r="D25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2592,38 +2740,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2791,7 +2939,7 @@
       </c>
       <c r="H14" s="13">
         <f ca="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>35327</v>
+        <v>35016</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2813,7 +2961,7 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" ref="H15:H18" ca="1" si="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>37221</v>
+        <v>35339</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2835,7 +2983,7 @@
       </c>
       <c r="H16" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>35532</v>
+        <v>36590</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2857,7 +3005,7 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>36522</v>
+        <v>36546</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2879,7 +3027,7 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>35935</v>
+        <v>36831</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3009,34 +3157,34 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -3046,34 +3194,34 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3099,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E04DB56-70AC-461F-AE93-E35A885FA725}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,13 +3292,13 @@
       <c r="J4" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3381,13 +3529,13 @@
       <c r="L30" s="24"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3406,13 +3554,13 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="14" t="s">
         <v>123</v>
       </c>
       <c r="F36" s="25" t="s">
@@ -3482,7 +3630,7 @@
       <c r="J43" s="26"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3511,7 +3659,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="4">
@@ -3540,7 +3688,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B48" s="4">
@@ -3613,7 +3761,7 @@
       <c r="L52" s="24"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3621,7 +3769,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="4">
@@ -3630,7 +3778,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="4">
@@ -3640,14 +3788,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A17:G20"/>
+    <mergeCell ref="A22:H25"/>
     <mergeCell ref="A50:L52"/>
     <mergeCell ref="A27:L30"/>
     <mergeCell ref="F36:M39"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A17:G20"/>
-    <mergeCell ref="A22:H25"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32" xr:uid="{484A8FA6-9A9F-4C6C-BDD5-507DC17454DE}">
@@ -3663,4 +3811,1093 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C03487-AED2-4A7E-880A-E6C2D54E5367}">
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71:H72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>2</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3</v>
+      </c>
+      <c r="F9" s="30">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="30">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="4">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="30">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="30">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="4">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="30">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="30">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="4">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="30">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="30">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="4">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="30">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="4">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="32" t="str">
+        <f>INDEX(C10:F18,5,3)</f>
+        <v>Service</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30">
+        <v>2</v>
+      </c>
+      <c r="E36" s="30">
+        <v>3</v>
+      </c>
+      <c r="F36" s="30">
+        <v>4</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="30">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="30">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="4">
+        <v>37</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="30">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="4">
+        <v>41</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="30">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="4">
+        <v>34</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="30">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="4">
+        <v>32</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="30">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="4">
+        <v>29</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="30">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4">
+        <v>40</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="30">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="4">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="30">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="4">
+        <v>36</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="32">
+        <f>MATCH(G50,C37:C45,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="32">
+        <f>MATCH(G58,C37:F37,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30">
+        <v>1</v>
+      </c>
+      <c r="D70" s="30">
+        <v>2</v>
+      </c>
+      <c r="E70" s="30">
+        <v>3</v>
+      </c>
+      <c r="F70" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="30">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="30">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="4">
+        <v>37</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="39" t="str">
+        <f>INDEX(C10:F18,MATCH(G50,C37:C45,0),MATCH(G58,C37:F37,0))</f>
+        <v>Service</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="30">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="4">
+        <v>41</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="30">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="4">
+        <v>34</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="30">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="4">
+        <v>32</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="30">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="4">
+        <v>29</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="30">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="4">
+        <v>40</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="30">
+        <v>8</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="4">
+        <v>34</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="30">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" s="4">
+        <v>36</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="A29:F31"/>
+    <mergeCell ref="A49:F54"/>
+    <mergeCell ref="A57:F62"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:H68"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A22:F25"/>
+    <mergeCell ref="A28:F28"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A86" xr:uid="{304F9FA2-BFFF-4BD0-AD44-3BEA862EB86B}">
+      <formula1>$C$71:$C$78</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A88" xr:uid="{DC8A0557-E92F-4B5F-915E-895E25F6A96D}">
+      <formula1>$D$71:$D$78</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/11th Feb Batch/Excel Whole Lesson.xlsx
+++ b/11th Feb Batch/Excel Whole Lesson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\11th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A72E72-7EC8-44AF-B14D-0155BA8349D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816A082A-5ACE-4610-95EC-A230E09DD910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="SUMIF , SUMIFS" sheetId="5" r:id="rId4"/>
     <sheet name="COUNTIF , COUNTIFS" sheetId="6" r:id="rId5"/>
     <sheet name="VLookUP , HLookUP" sheetId="7" r:id="rId6"/>
-    <sheet name="Index Match" sheetId="8" r:id="rId7"/>
+    <sheet name="Index Match" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -719,6 +719,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,43 +774,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,22 +1086,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1153,24 +1153,24 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,C3:F3)</f>
@@ -1178,13 +1178,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -1222,110 +1222,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1885,15 +1885,15 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1932,15 +1932,15 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1949,13 +1949,13 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1964,42 +1964,42 @@
       <c r="M29" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2125,26 +2125,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2178,77 +2178,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2263,10 +2263,10 @@
       <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2374,39 +2374,39 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2421,10 +2421,10 @@
       <c r="D25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2740,38 +2740,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="H14" s="13">
         <f ca="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>35016</v>
+        <v>36098</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" ref="H15:H18" ca="1" si="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>35339</v>
+        <v>37110</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="H16" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>36590</v>
+        <v>34860</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>36546</v>
+        <v>35254</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>36831</v>
+        <v>36563</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,34 +3157,34 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -3194,34 +3194,34 @@
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3248,7 +3248,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,38 +3258,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -3391,142 +3391,142 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
@@ -3563,16 +3563,16 @@
       <c r="C36" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -3586,48 +3586,48 @@
         <f>VLOOKUP(A37,A8:C15,3,0)</f>
         <v>3000</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
@@ -3717,48 +3717,48 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -3814,11 +3814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C03487-AED2-4A7E-880A-E6C2D54E5367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8772A443-3F4B-4194-8BE0-13FBA81D0E52}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71:H72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,46 +3834,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -3919,17 +3919,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
         <v>1</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="17">
         <v>3</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="17">
         <v>4</v>
       </c>
       <c r="G9" s="4"/>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="30">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3957,7 +3957,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="30">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3977,7 +3977,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="30">
+      <c r="B12" s="17">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3997,7 +3997,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="30">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -4017,7 +4017,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="30">
+      <c r="B14" s="17">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -4037,7 +4037,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="30">
+      <c r="B15" s="17">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4057,7 +4057,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="30">
+      <c r="B16" s="17">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4077,7 +4077,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="30">
+      <c r="B17" s="17">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4097,7 +4097,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="30">
+      <c r="B18" s="17">
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -4146,93 +4146,93 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="32" t="str">
+      <c r="H23" s="18" t="str">
         <f>INDEX(C10:F18,5,3)</f>
         <v>Service</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -4278,17 +4278,17 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17">
         <v>1</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="17">
         <v>2</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="17">
         <v>3</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="17">
         <v>4</v>
       </c>
       <c r="G36" s="4"/>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="30">
+      <c r="B37" s="17">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4316,7 +4316,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="30">
+      <c r="B38" s="17">
         <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4336,7 +4336,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="30">
+      <c r="B39" s="17">
         <v>3</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4356,7 +4356,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="30">
+      <c r="B40" s="17">
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4376,7 +4376,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="30">
+      <c r="B41" s="17">
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4396,7 +4396,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="30">
+      <c r="B42" s="17">
         <v>6</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4416,7 +4416,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="30">
+      <c r="B43" s="17">
         <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4436,7 +4436,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="30">
+      <c r="B44" s="17">
         <v>8</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4456,7 +4456,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="30">
+      <c r="B45" s="17">
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -4505,138 +4505,138 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="35" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="36" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="H50" s="32">
+      <c r="H50" s="18">
         <f>MATCH(G50,C37:C45,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="33"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="35" t="s">
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="36" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="32">
+      <c r="H58" s="18">
         <f>MATCH(G58,C37:F37,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="33"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
@@ -4651,54 +4651,54 @@
       <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="30"/>
-      <c r="C70" s="30">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17">
         <v>1</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="17">
         <v>2</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="17">
         <v>3</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="30">
+      <c r="B71" s="17">
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -4713,12 +4713,12 @@
       <c r="F71" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H71" s="38" t="s">
+      <c r="H71" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="30">
+      <c r="B72" s="17">
         <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -4733,13 +4733,13 @@
       <c r="F72" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H72" s="39" t="str">
+      <c r="H72" s="16" t="str">
         <f>INDEX(C10:F18,MATCH(G50,C37:C45,0),MATCH(G58,C37:F37,0))</f>
         <v>Service</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="30">
+      <c r="B73" s="17">
         <v>3</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -4756,7 +4756,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="30">
+      <c r="B74" s="17">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -4773,7 +4773,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="30">
+      <c r="B75" s="17">
         <v>5</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -4790,7 +4790,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="30">
+      <c r="B76" s="17">
         <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="30">
+      <c r="B77" s="17">
         <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="30">
+      <c r="B78" s="17">
         <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -4841,7 +4841,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="30">
+      <c r="B79" s="17">
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -4858,46 +4858,44 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A29:F31"/>
-    <mergeCell ref="A49:F54"/>
     <mergeCell ref="A57:F62"/>
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H68"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="C85:E85"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F4"/>
     <mergeCell ref="A22:F25"/>
     <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F31"/>
+    <mergeCell ref="A49:F54"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A86" xr:uid="{304F9FA2-BFFF-4BD0-AD44-3BEA862EB86B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A86" xr:uid="{80E3EF33-FBA9-4275-A2A6-C1DE2614B88F}">
       <formula1>$C$71:$C$78</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A88" xr:uid="{DC8A0557-E92F-4B5F-915E-895E25F6A96D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A88" xr:uid="{614FF00A-E9FA-4641-B941-0DA102137542}">
       <formula1>$D$71:$D$78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11th Feb Batch/Excel Whole Lesson.xlsx
+++ b/11th Feb Batch/Excel Whole Lesson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\11th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816A082A-5ACE-4610-95EC-A230E09DD910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DFC083-A218-46B3-8566-0B429E7A0498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concat - Textjoin" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <sheet name="COUNTIF , COUNTIFS" sheetId="6" r:id="rId5"/>
     <sheet name="VLookUP , HLookUP" sheetId="7" r:id="rId6"/>
     <sheet name="Index Match" sheetId="9" r:id="rId7"/>
+    <sheet name="Pivot Table" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="188">
   <si>
     <t>Concat Method</t>
   </si>
@@ -544,6 +548,66 @@
   </si>
   <si>
     <t>This is a very powerful application of excel . Combining the index and match formula together , we will be able to get the output of a specific data from the entire dataset.</t>
+  </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>Pivot table helps us to filter our data more effectively and on differenet set of layers , let's understand the same. From the same source of data we can create a pivot table on the same worksheet and on a different worksheet as well.</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>GOF1</t>
+  </si>
+  <si>
+    <t>GOF2</t>
+  </si>
+  <si>
+    <t>Hermione</t>
+  </si>
+  <si>
+    <t>Malfoy</t>
+  </si>
+  <si>
+    <t>Crabbe</t>
+  </si>
+  <si>
+    <t>Goyle</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Helga</t>
+  </si>
+  <si>
+    <t>Rowena</t>
+  </si>
+  <si>
+    <t>Gryfindor</t>
+  </si>
+  <si>
+    <t>Slytherin</t>
+  </si>
+  <si>
+    <t>Ravenclaw</t>
+  </si>
+  <si>
+    <t>Hufflepuf</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of GOF2</t>
+  </si>
+  <si>
+    <t>GOF3</t>
   </si>
 </sst>
 </file>
@@ -676,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,23 +837,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,6 +879,158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chandan Sengupta" refreshedDate="44990.422883333333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{EB509BEC-A750-4725-B426-690DDAA16299}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A8:D18" sheet="Pivot Table"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="House" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Gryfindor"/>
+        <s v="Slytherin"/>
+        <s v="Ravenclaw"/>
+        <s v="Hufflepuf"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GOF1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="590" maxValue="988"/>
+    </cacheField>
+    <cacheField name="GOF2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="553" maxValue="967"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1138881849"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="Harry"/>
+    <x v="0"/>
+    <n v="590"/>
+    <n v="960"/>
+  </r>
+  <r>
+    <s v="Hermione"/>
+    <x v="0"/>
+    <n v="974"/>
+    <n v="553"/>
+  </r>
+  <r>
+    <s v="Ron"/>
+    <x v="0"/>
+    <n v="775"/>
+    <n v="794"/>
+  </r>
+  <r>
+    <s v="Ginny"/>
+    <x v="0"/>
+    <n v="983"/>
+    <n v="734"/>
+  </r>
+  <r>
+    <s v="Malfoy"/>
+    <x v="1"/>
+    <n v="988"/>
+    <n v="789"/>
+  </r>
+  <r>
+    <s v="Crabbe"/>
+    <x v="1"/>
+    <n v="800"/>
+    <n v="564"/>
+  </r>
+  <r>
+    <s v="Goyle"/>
+    <x v="1"/>
+    <n v="798"/>
+    <n v="768"/>
+  </r>
+  <r>
+    <s v="Luna"/>
+    <x v="2"/>
+    <n v="674"/>
+    <n v="911"/>
+  </r>
+  <r>
+    <s v="Helga"/>
+    <x v="3"/>
+    <n v="745"/>
+    <n v="967"/>
+  </r>
+  <r>
+    <s v="Rowena"/>
+    <x v="2"/>
+    <n v="685"/>
+    <n v="646"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F485851D-2B71-4768-B773-A35DB820A9DC}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of GOF2" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1206,7 +1430,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2389,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,7 +3163,7 @@
       </c>
       <c r="H14" s="13">
         <f ca="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>36098</v>
+        <v>35435</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2961,7 +3185,7 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" ref="H15:H18" ca="1" si="1">RANDBETWEEN(DATE(1995,1,1),DATE(2001,12,31))</f>
-        <v>37110</v>
+        <v>36595</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2983,7 +3207,7 @@
       </c>
       <c r="H16" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>34860</v>
+        <v>36299</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,7 +3229,7 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>35254</v>
+        <v>34964</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3027,7 +3251,7 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>36563</v>
+        <v>35087</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3817,7 +4041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8772A443-3F4B-4194-8BE0-13FBA81D0E52}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -4146,26 +4370,26 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="4"/>
       <c r="H22" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="4"/>
       <c r="H23" s="18" t="str">
         <f>INDEX(C10:F18,5,3)</f>
@@ -4173,22 +4397,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -4205,34 +4429,34 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -4505,14 +4729,14 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="20" t="s">
         <v>164</v>
       </c>
@@ -4521,12 +4745,12 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="21" t="s">
         <v>145</v>
       </c>
@@ -4536,50 +4760,50 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="19"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="19"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
       <c r="G57" s="20" t="s">
         <v>164</v>
       </c>
@@ -4588,12 +4812,12 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
       <c r="G58" s="21" t="s">
         <v>143</v>
       </c>
@@ -4603,52 +4827,52 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
       <c r="G59" s="19"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="19"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
@@ -4858,35 +5082,35 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A49:F54"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A22:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F31"/>
     <mergeCell ref="A57:F62"/>
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H68"/>
     <mergeCell ref="A81:D82"/>
     <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F4"/>
-    <mergeCell ref="A22:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F31"/>
-    <mergeCell ref="A49:F54"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A86" xr:uid="{80E3EF33-FBA9-4275-A2A6-C1DE2614B88F}">
@@ -4898,4 +5122,318 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2305F161-9B6E-4CB2-9A84-8BDF7667F69D}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="4">
+        <v>590</v>
+      </c>
+      <c r="D9" s="4">
+        <v>960</v>
+      </c>
+      <c r="E9" s="6">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="4">
+        <v>974</v>
+      </c>
+      <c r="D10" s="4">
+        <v>553</v>
+      </c>
+      <c r="E10" s="6">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="4">
+        <v>775</v>
+      </c>
+      <c r="D11" s="4">
+        <v>794</v>
+      </c>
+      <c r="E11" s="6">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="4">
+        <v>983</v>
+      </c>
+      <c r="D12" s="4">
+        <v>734</v>
+      </c>
+      <c r="E12" s="6">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="4">
+        <v>988</v>
+      </c>
+      <c r="D13" s="4">
+        <v>789</v>
+      </c>
+      <c r="E13" s="6">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="4">
+        <v>800</v>
+      </c>
+      <c r="D14" s="4">
+        <v>564</v>
+      </c>
+      <c r="E14" s="6">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="4">
+        <v>798</v>
+      </c>
+      <c r="D15" s="4">
+        <v>768</v>
+      </c>
+      <c r="E15" s="6">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="4">
+        <v>674</v>
+      </c>
+      <c r="D16" s="4">
+        <v>911</v>
+      </c>
+      <c r="E16" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="4">
+        <v>745</v>
+      </c>
+      <c r="D17" s="4">
+        <v>967</v>
+      </c>
+      <c r="E17" s="6">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4">
+        <v>685</v>
+      </c>
+      <c r="D18" s="4">
+        <v>646</v>
+      </c>
+      <c r="E18" s="6">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="42">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="42">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="42">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="42">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="42">
+        <v>7686</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:H5"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>